--- a/FieldValidation.xlsx
+++ b/FieldValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEFA637-1215-4BA0-94BB-3FB18A391F4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F862AF-C1F8-4603-A78B-6956F3712233}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F65345F9-5BB1-43D2-8B35-44D1E9CD9220}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Field Validation</t>
   </si>
@@ -102,6 +102,201 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>*Name fields - alphabets, numbers and special characters are acceptable</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>Only + - Special character are allowed</t>
+  </si>
+  <si>
+    <t>SL NO</t>
+  </si>
+  <si>
+    <t>Issued Place</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed except - /</t>
+  </si>
+  <si>
+    <t>Doc.No</t>
+  </si>
+  <si>
+    <t>Member ID/Card#</t>
+  </si>
+  <si>
+    <t>Card #</t>
+  </si>
+  <si>
+    <t>Old Registration</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t>Numbers and special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pending  Visit Requisition</t>
+  </si>
+  <si>
+    <t>Patient #</t>
+  </si>
+  <si>
+    <t>Special characters are not accepted</t>
+  </si>
+  <si>
+    <t>Add Policy</t>
+  </si>
+  <si>
+    <t>M/F</t>
+  </si>
+  <si>
+    <t>Only M or F is accepted.All other alphabets,special characters and numbers are not accepted.</t>
+  </si>
+  <si>
+    <t>Duplicate Barcode Print</t>
+  </si>
+  <si>
+    <t>Advance Entry</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Billing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;Advance Transfer</t>
+    </r>
+  </si>
+  <si>
+    <t>Consolidate Bill Refund</t>
+  </si>
+  <si>
+    <t>Bill #</t>
+  </si>
+  <si>
+    <t>Special character and alphabets are not accepted</t>
+  </si>
+  <si>
+    <t>Visit Closing</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Visit Re-Open</t>
+  </si>
+  <si>
+    <t>Advance Refund</t>
+  </si>
+  <si>
+    <t>Refund  No</t>
+  </si>
+  <si>
+    <t>Patient No</t>
+  </si>
+  <si>
+    <t>Package Details</t>
+  </si>
+  <si>
+    <t>Due Settlement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>General</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;User Details</t>
+    </r>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Special characters and numbers are not accepted</t>
+  </si>
+  <si>
+    <t>Patient Alert</t>
+  </si>
+  <si>
+    <t>Patient Query</t>
+  </si>
+  <si>
+    <t>Patient Wise Visit Search</t>
+  </si>
+  <si>
+    <t>Mediware session lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Patient Id </t>
+  </si>
+  <si>
+    <t>Insurance approval status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insurance approvals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;Approval Reqest</t>
+    </r>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Special character except + and alphabets are not accepted</t>
   </si>
 </sst>
 </file>
@@ -140,30 +335,31 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -181,39 +377,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -240,9 +405,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,8 +417,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,20 +446,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,153 +763,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A7B978-EFFF-4C8C-B77B-DC96EFC9EA67}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="46" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="46" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FieldValidation.xlsx
+++ b/FieldValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F862AF-C1F8-4603-A78B-6956F3712233}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF669-E17A-4F38-AB17-9C23B5854F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F65345F9-5BB1-43D2-8B35-44D1E9CD9220}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Field Validation</t>
   </si>
@@ -143,18 +143,9 @@
     <t>Numbers and special characters are not allowed</t>
   </si>
   <si>
-    <t>Pending  Visit Requisition</t>
-  </si>
-  <si>
-    <t>Patient #</t>
-  </si>
-  <si>
     <t>Special characters are not accepted</t>
   </si>
   <si>
-    <t>Add Policy</t>
-  </si>
-  <si>
     <t>M/F</t>
   </si>
   <si>
@@ -164,7 +155,22 @@
     <t>Duplicate Barcode Print</t>
   </si>
   <si>
-    <t>Advance Entry</t>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Advance Refund</t>
+  </si>
+  <si>
+    <t>Refund  No</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Special characters and numbers are not accepted</t>
+  </si>
+  <si>
+    <t>Add policy</t>
   </si>
   <si>
     <r>
@@ -186,117 +192,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt;Advance Transfer</t>
+      <t>-&gt;Visit Closing</t>
     </r>
   </si>
   <si>
-    <t>Consolidate Bill Refund</t>
-  </si>
-  <si>
-    <t>Bill #</t>
-  </si>
-  <si>
-    <t>Special character and alphabets are not accepted</t>
-  </si>
-  <si>
-    <t>Visit Closing</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Visit Re-Open</t>
-  </si>
-  <si>
-    <t>Advance Refund</t>
-  </si>
-  <si>
-    <t>Refund  No</t>
-  </si>
-  <si>
-    <t>Patient No</t>
-  </si>
-  <si>
-    <t>Package Details</t>
-  </si>
-  <si>
-    <t>Due Settlement</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>General</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;User Details</t>
-    </r>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Special characters and numbers are not accepted</t>
-  </si>
-  <si>
-    <t>Patient Alert</t>
-  </si>
-  <si>
-    <t>Patient Query</t>
-  </si>
-  <si>
-    <t>Patient Wise Visit Search</t>
-  </si>
-  <si>
-    <t>Mediware session lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Patient Id </t>
-  </si>
-  <si>
-    <t>Insurance approval status</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Insurance approvals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;Approval Reqest</t>
-    </r>
-  </si>
-  <si>
-    <t>Mobile No</t>
-  </si>
-  <si>
-    <t>Special character except + and alphabets are not accepted</t>
+    <t>Lab Result</t>
+  </si>
+  <si>
+    <t>Sample No</t>
+  </si>
+  <si>
+    <t>Result Print</t>
   </si>
 </sst>
 </file>
@@ -405,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -431,9 +337,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A7B978-EFFF-4C8C-B77B-DC96EFC9EA67}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,13 +682,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="1"/>
       <c r="G1" s="5"/>
       <c r="H1" s="1"/>
@@ -794,13 +697,13 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="2"/>
@@ -809,12 +712,12 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -926,7 +829,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -940,7 +843,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -951,7 +854,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -962,7 +865,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -973,7 +876,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -984,7 +887,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -995,7 +898,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -1011,7 +914,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>33</v>
@@ -1025,7 +928,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -1039,12 +942,12 @@
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1055,13 +958,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,337 +972,70 @@
       <c r="E25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>39</v>
-      </c>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/FieldValidation.xlsx
+++ b/FieldValidation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF669-E17A-4F38-AB17-9C23B5854F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415ABED-688D-44DA-BC36-34FB538C2F3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F65345F9-5BB1-43D2-8B35-44D1E9CD9220}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Field Validation</t>
   </si>
@@ -203,6 +203,54 @@
   </si>
   <si>
     <t>Result Print</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Pending Requisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package </t>
+  </si>
+  <si>
+    <t>Special characters and numeric values are not accepted</t>
+  </si>
+  <si>
+    <t>Surgery</t>
+  </si>
+  <si>
+    <t>Booking List</t>
+  </si>
+  <si>
+    <t>IP#</t>
+  </si>
+  <si>
+    <t>Special characters and alphabets are not accepted</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>Surgery Request</t>
+  </si>
+  <si>
+    <t>Surgery Date</t>
+  </si>
+  <si>
+    <t>Special character and alphabets are not accepted</t>
+  </si>
+  <si>
+    <t>Allergy Details</t>
+  </si>
+  <si>
+    <t>Generic Name</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>Employee No</t>
   </si>
 </sst>
 </file>
@@ -666,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A7B978-EFFF-4C8C-B77B-DC96EFC9EA67}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,8 +1082,112 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="7"/>
+    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/FieldValidation.xlsx
+++ b/FieldValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415ABED-688D-44DA-BC36-34FB538C2F3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2ABFF8-C6D8-43CF-9467-E6AF20D22ECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F65345F9-5BB1-43D2-8B35-44D1E9CD9220}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>Field Validation</t>
   </si>
@@ -251,6 +251,150 @@
   </si>
   <si>
     <t>Employee No</t>
+  </si>
+  <si>
+    <t>In Patient</t>
+  </si>
+  <si>
+    <t>Guardian Name</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>Mother Name</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t>Ref.Doctor</t>
+  </si>
+  <si>
+    <t>Initial Diagnosis</t>
+  </si>
+  <si>
+    <t>Patient Age</t>
+  </si>
+  <si>
+    <t>Ref No</t>
+  </si>
+  <si>
+    <t>Special characters are not accepted except / -</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Instrument#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan Card </t>
+  </si>
+  <si>
+    <t>In Patient  List</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procategory Head </t>
+  </si>
+  <si>
+    <t>Sl#</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Quotation#</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>PO#</t>
+  </si>
+  <si>
+    <t>GRN view</t>
+  </si>
+  <si>
+    <t>GRN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Search </t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>Tax Desc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Return Direct </t>
+  </si>
+  <si>
+    <t>Issue#</t>
+  </si>
+  <si>
+    <t>Tax a/c</t>
+  </si>
+  <si>
+    <t>Invoice #</t>
+  </si>
+  <si>
+    <t>Direct Store Issue</t>
+  </si>
+  <si>
+    <t>Manual Indent #</t>
+  </si>
+  <si>
+    <t>Alphabets are not accepted</t>
+  </si>
+  <si>
+    <t>Cancel Purchase Order</t>
+  </si>
+  <si>
+    <t>Order#</t>
+  </si>
+  <si>
+    <t>Parameter  Settings</t>
+  </si>
+  <si>
+    <t>Hospital TIN No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRN Wise Search </t>
+  </si>
+  <si>
+    <t>GRN No</t>
+  </si>
+  <si>
+    <t>Indent Wise Search</t>
+  </si>
+  <si>
+    <t>Indent#</t>
+  </si>
+  <si>
+    <t>Store Requisition Searchiong</t>
+  </si>
+  <si>
+    <t>Requisition #</t>
+  </si>
+  <si>
+    <t>Pending poItem Wise</t>
   </si>
 </sst>
 </file>
@@ -714,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A7B978-EFFF-4C8C-B77B-DC96EFC9EA67}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1333,384 @@
         <v>37</v>
       </c>
     </row>
+    <row r="42" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>57</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>58</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E3"/>
